--- a/StructureDefinition-MedRecord.xlsx
+++ b/StructureDefinition-MedRecord.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12786" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12787" uniqueCount="280">
   <si>
     <t>Path</t>
   </si>
@@ -738,8 +738,27 @@
     <t>Composition</t>
   </si>
   <si>
-    <t xml:space="preserve">Composition
+    <t xml:space="preserve">Composition {xxxhttp://somewhere.org/fhir/uv/myig/StructureDefinition/MedRecord-comp}
 </t>
+  </si>
+  <si>
+    <t>A set of resources composed into a single coherent clinical statement with clinical attestation</t>
+  </si>
+  <si>
+    <t>A set of healthcare-related information that is assembled together into a single logical package that provides a single coherent statement of meaning, establishes its own context and that has clinical attestation with regard to who is making the statement. A Composition defines the structure and narrative content necessary for a document. However, a Composition alone does not constitute a document. Rather, the Composition must be the first entry in a Bundle where Bundle.type=document, and any other resources referenced from Composition must be included as subsequent entries in the Bundle (for example Patient, Practitioner, Encounter, etc.).</t>
+  </si>
+  <si>
+    <t>While the focus of this specification is on patient-specific clinical statements, this resource can also apply to other healthcare-related statements such as study protocol designs, healthcare invoices and other activities that are not necessarily patient-specific or clinical.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+  </si>
+  <si>
+    <t>Document[classCode="DOC" and moodCode="EVN" and isNormalAct()]</t>
+  </si>
+  <si>
+    <t>ClinicalDocument</t>
   </si>
   <si>
     <t>Patient</t>
@@ -770,10 +789,6 @@
   </si>
   <si>
     <t>Describes the intention of how one or more practitioners intend to deliver care for a particular patient, group or community for a period of time, possibly limited to care for a specific condition or set of conditions.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Act[classCode=PCPR, moodCode=INT]</t>
@@ -1068,7 +1083,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="81.6171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="87.1015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1094,7 +1109,7 @@
     <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="28.1484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="36.62109375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="67.23828125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="42.97265625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
@@ -7087,18 +7102,20 @@
         <v>40</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>228</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>155</v>
+        <v>229</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>40</v>
@@ -7159,16 +7176,16 @@
         <v>40</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>40</v>
+        <v>232</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>40</v>
+        <v>233</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>40</v>
+        <v>234</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>40</v>
@@ -9934,7 +9951,7 @@
         <v>135</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C81" t="s" s="2">
         <v>40</v>
@@ -9959,7 +9976,7 @@
         <v>106</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="L81" t="s" s="2">
         <v>138</v>
@@ -10618,7 +10635,7 @@
         <v>50</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="K87" t="s" s="2">
         <v>155</v>
@@ -13462,7 +13479,7 @@
         <v>135</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C113" t="s" s="2">
         <v>40</v>
@@ -13487,7 +13504,7 @@
         <v>106</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="L113" t="s" s="2">
         <v>138</v>
@@ -14127,7 +14144,7 @@
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
@@ -14146,13 +14163,13 @@
         <v>40</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -14215,13 +14232,13 @@
         <v>40</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>40</v>
@@ -16990,7 +17007,7 @@
         <v>135</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C145" t="s" s="2">
         <v>40</v>
@@ -17015,7 +17032,7 @@
         <v>106</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L145" t="s" s="2">
         <v>138</v>
@@ -17674,16 +17691,16 @@
         <v>40</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" t="s" s="2">
@@ -17745,13 +17762,13 @@
         <v>40</v>
       </c>
       <c r="AI151" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AJ151" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="AL151" t="s" s="2">
         <v>40</v>
@@ -20520,7 +20537,7 @@
         <v>135</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C177" t="s" s="2">
         <v>40</v>
@@ -20545,7 +20562,7 @@
         <v>106</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="L177" t="s" s="2">
         <v>138</v>
@@ -21204,16 +21221,16 @@
         <v>40</v>
       </c>
       <c r="J183" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="N183" s="2"/>
       <c r="O183" t="s" s="2">
@@ -21275,13 +21292,13 @@
         <v>40</v>
       </c>
       <c r="AI183" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AJ183" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK183" t="s" s="2">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="AL183" t="s" s="2">
         <v>40</v>
@@ -24050,7 +24067,7 @@
         <v>135</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C209" t="s" s="2">
         <v>40</v>
@@ -24075,7 +24092,7 @@
         <v>106</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="L209" t="s" s="2">
         <v>138</v>
@@ -24734,13 +24751,13 @@
         <v>40</v>
       </c>
       <c r="J215" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="M215" s="2"/>
       <c r="N215" s="2"/>
@@ -24803,13 +24820,13 @@
         <v>40</v>
       </c>
       <c r="AI215" t="s" s="2">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="AJ215" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK215" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="AL215" t="s" s="2">
         <v>40</v>
@@ -27578,7 +27595,7 @@
         <v>135</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C241" t="s" s="2">
         <v>40</v>
@@ -27603,7 +27620,7 @@
         <v>106</v>
       </c>
       <c r="K241" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="L241" t="s" s="2">
         <v>138</v>
@@ -28262,13 +28279,13 @@
         <v>40</v>
       </c>
       <c r="J247" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="K247" t="s" s="2">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="M247" s="2"/>
       <c r="N247" s="2"/>
@@ -28331,13 +28348,13 @@
         <v>40</v>
       </c>
       <c r="AI247" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AJ247" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK247" t="s" s="2">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="AL247" t="s" s="2">
         <v>40</v>
@@ -31106,7 +31123,7 @@
         <v>135</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C273" t="s" s="2">
         <v>40</v>
@@ -31131,7 +31148,7 @@
         <v>106</v>
       </c>
       <c r="K273" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="L273" t="s" s="2">
         <v>138</v>
@@ -31771,7 +31788,7 @@
       </c>
       <c r="B279" s="2"/>
       <c r="C279" t="s" s="2">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D279" s="2"/>
       <c r="E279" t="s" s="2">
@@ -31790,13 +31807,13 @@
         <v>40</v>
       </c>
       <c r="J279" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="K279" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="L279" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="M279" s="2"/>
       <c r="N279" s="2"/>
@@ -31859,13 +31876,13 @@
         <v>40</v>
       </c>
       <c r="AI279" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AJ279" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK279" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="AL279" t="s" s="2">
         <v>40</v>
@@ -34634,7 +34651,7 @@
         <v>135</v>
       </c>
       <c r="B305" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C305" t="s" s="2">
         <v>40</v>
@@ -34659,7 +34676,7 @@
         <v>106</v>
       </c>
       <c r="K305" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="L305" t="s" s="2">
         <v>138</v>
@@ -35299,7 +35316,7 @@
       </c>
       <c r="B311" s="2"/>
       <c r="C311" t="s" s="2">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D311" s="2"/>
       <c r="E311" t="s" s="2">
@@ -35318,13 +35335,13 @@
         <v>40</v>
       </c>
       <c r="J311" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="K311" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="L311" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="M311" s="2"/>
       <c r="N311" s="2"/>
@@ -35387,13 +35404,13 @@
         <v>40</v>
       </c>
       <c r="AI311" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AJ311" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK311" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="AL311" t="s" s="2">
         <v>40</v>
@@ -38162,7 +38179,7 @@
         <v>135</v>
       </c>
       <c r="B337" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="C337" t="s" s="2">
         <v>40</v>
@@ -38187,7 +38204,7 @@
         <v>106</v>
       </c>
       <c r="K337" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="L337" t="s" s="2">
         <v>138</v>
@@ -38846,16 +38863,16 @@
         <v>40</v>
       </c>
       <c r="J343" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="K343" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="L343" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="M343" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="N343" s="2"/>
       <c r="O343" t="s" s="2">
@@ -38917,13 +38934,13 @@
         <v>40</v>
       </c>
       <c r="AI343" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AJ343" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK343" t="s" s="2">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="AL343" t="s" s="2">
         <v>40</v>
@@ -41689,7 +41706,7 @@
     </row>
     <row r="369" hidden="true">
       <c r="A369" t="s" s="2">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B369" s="2"/>
       <c r="C369" t="s" s="2">
@@ -41712,19 +41729,19 @@
         <v>50</v>
       </c>
       <c r="J369" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="K369" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="L369" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="M369" t="s" s="2">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="N369" t="s" s="2">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="O369" t="s" s="2">
         <v>40</v>
@@ -41773,7 +41790,7 @@
         <v>40</v>
       </c>
       <c r="AE369" t="s" s="2">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="AF369" t="s" s="2">
         <v>41</v>
